--- a/4_Mes_Supports_Cours/Cours UML/Vocabulaire_UML_dev.xlsx
+++ b/4_Mes_Supports_Cours/Cours UML/Vocabulaire_UML_dev.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathieumithridate\Documents\cours\uml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Soler\Documents\Dossier formation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="use_case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Vocabulaire UML</t>
   </si>
@@ -49,18 +49,36 @@
     <t>Acteur</t>
   </si>
   <si>
+    <t>Un acteur réprésente un utilisateur ou un groupe d'utilisateur qui va avoir accès à un ou plusieurs cas d'utilisation</t>
+  </si>
+  <si>
+    <t>Un cas d'utilisation ou use case repérente une fonctionnalité ou une méthode d'un projet (logiciel, site web, application mobile, outils etc…)</t>
+  </si>
+  <si>
     <t>Généralisation</t>
   </si>
   <si>
+    <t>La généralisation permet une relation d'héritage entre 2 acteurs, cela va permettre de partager les cas d'utilisation que posséde un acteur avec un autre acteur.</t>
+  </si>
+  <si>
     <t>Extend</t>
   </si>
   <si>
     <t>Include</t>
   </si>
   <si>
+    <t>L'extend est une relation entre 2 cas d'utilisation, elle permet d'étendre un cas d'utilisation avec un ou plusieurs autres cas d'utilisation de  façon facultative.</t>
+  </si>
+  <si>
+    <t>L'include est une relation entre 2 cas d'utilisation, elle permet d'étendre un cas d'utilisation avec un autre cas d'utilisation de  façon obligatoire.</t>
+  </si>
+  <si>
     <t>Diagramme de cas d'utilisation</t>
   </si>
   <si>
+    <t>Le diagramme de cas d'utilisation ou use case, permet de représenter les différents cas d'utilisation (méthodes, fonctionnalités) d'un projet ainsi que les acteurs qui vont y avoir accès.</t>
+  </si>
+  <si>
     <t>activité</t>
   </si>
   <si>
@@ -70,27 +88,54 @@
     <t>Swimlane</t>
   </si>
   <si>
+    <t>Une swimlane permet de répartir sur le schéma les différents acteurs, actions et activités</t>
+  </si>
+  <si>
     <t>Send signal</t>
   </si>
   <si>
+    <t>Un send signal est utilisé pour envoyer une message ou bien appeler une autre activité, celle-ci ne sera pas détaillée on dit qu'elle est non atomique, elle sera détaillé dans un autre diagramme d'activité.</t>
+  </si>
+  <si>
+    <t>Une action représente une étape non décomposable d'un diagramme d'activité (par ex demander les informations d'un compte à l'utilisateur). On dit que cette action est atomique.</t>
+  </si>
+  <si>
     <t>Accept signal</t>
   </si>
   <si>
+    <t>L'accept signal est utilisé pour déclarer l'événement qui va déclancher un cas d'utilisation, par ex le fait de cliquer sur le cas d'utilisation. On en aura qu'un seul en début de diagramme.</t>
+  </si>
+  <si>
     <t>Final</t>
   </si>
   <si>
     <t>Flow final</t>
   </si>
   <si>
+    <t>Le final représente l'état final d'un cas d'utilisation. (le cas nominal), On en aura qu'un seul à la fin du diagramme.</t>
+  </si>
+  <si>
     <t>Décision</t>
   </si>
   <si>
+    <t>Le flow final va étre utilisé à la fin de chaque flux (par ex l'envoi d'un message avec un flow final), cela sert à terminé un flux local. Il peut y avoir plusieurs flow final dans un diagramme d'activité.</t>
+  </si>
+  <si>
+    <t>La décision sert à faire des tests pour vérifier une action. (par ex les  données sont valides ou pas).</t>
+  </si>
+  <si>
     <t>Fork</t>
   </si>
   <si>
+    <t>Symbole qui permet de lancer plusieurs actions en parallèle (par ex une action et un send signal 'message').</t>
+  </si>
+  <si>
     <t>séquence</t>
   </si>
   <si>
+    <t>Le diagramme d'activité sert à décomposer les différentes actions d'un cas d'utilisation sous une forme algorithmique.</t>
+  </si>
+  <si>
     <t>diagramme d'activité</t>
   </si>
   <si>
@@ -100,22 +145,40 @@
     <t>Async message</t>
   </si>
   <si>
+    <t>Le message asynchrome est un message qui n'attend pas une réponse du système.</t>
+  </si>
+  <si>
+    <t>Le message est synchrome, cela signifi qu'il va attendre une réponse du système.</t>
+  </si>
+  <si>
     <t>Reply message</t>
   </si>
   <si>
+    <t>Le reply message est le retour du système d'un message.</t>
+  </si>
+  <si>
     <t>Self message</t>
   </si>
   <si>
+    <t>Le système travaille en interne (sur lui-même)</t>
+  </si>
+  <si>
     <t>Lifeline</t>
   </si>
   <si>
+    <t>la lifeline permet de séparer les différents acteurs sur un diagramme de séquence.</t>
+  </si>
+  <si>
     <t>Diagramme de séquence</t>
+  </si>
+  <si>
+    <t>Le diagramme de séquence est un diagramme qui représente les différentes actions sous une forme chronologique, on ne réprésente dessus qu'un seul scénario le cas nominal.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -463,14 +526,14 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="31.5" customHeight="1">
@@ -489,49 +552,67 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" ht="60">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" ht="45">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" ht="60">
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" ht="60">
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" ht="60">
       <c r="B7" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="28.8">
+    <row r="8" spans="2:4" ht="75">
       <c r="B8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
@@ -548,22 +629,22 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21">
+    <row r="1" spans="2:4" ht="20.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15.6">
+    <row r="2" spans="2:4" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -574,76 +655,103 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" ht="75">
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="75">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="75">
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="45">
       <c r="B7" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="75">
       <c r="B8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+    </row>
+    <row r="9" spans="2:4" ht="45">
       <c r="B9" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="45">
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="45">
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -656,22 +764,22 @@
   <dimension ref="B1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="21">
+    <row r="1" spans="2:4" ht="20.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="15.6">
+    <row r="2" spans="2:4" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -682,52 +790,70 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" ht="30">
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="30">
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="30">
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" ht="28.8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" ht="60">
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>47</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
